--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgkang/Dropbox/EOSC350_2018_Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD/Users/thibautastic/Dropbox/EOSC350_2018_Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5240" yWindow="-23540" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL3" s="10">
         <v>8</v>

--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ12" workbookViewId="0">
+      <selection activeCell="AH40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5630,7 +5630,7 @@
         <v>95</v>
       </c>
       <c r="AK40" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL40" s="10">
         <v>9.5</v>

--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacintoshHD/Users/thibautastic/Dropbox/EOSC350_2018_Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibaut Astic\Dropbox\EOSC350_2018_Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24620" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="24615" windowHeight="15555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
     <author>Felipe</author>
   </authors>
   <commentList>
-    <comment ref="F68" authorId="0">
+    <comment ref="F68" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0"/>
   </numFmts>
@@ -564,6 +564,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -834,54 +837,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ12" workbookViewId="0">
-      <selection activeCell="AH40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="R28" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="32.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="32.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -3616,7 +3619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>36</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -6176,7 +6179,9 @@
       <c r="T45" s="2">
         <v>10</v>
       </c>
-      <c r="U45" s="2"/>
+      <c r="U45" s="2">
+        <v>65</v>
+      </c>
       <c r="V45" s="4">
         <v>73.33</v>
       </c>
@@ -6232,7 +6237,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -6351,7 +6356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -6468,7 +6473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
@@ -6825,7 +6830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -7182,7 +7187,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>74</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>15</v>
       </c>
@@ -7777,7 +7782,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -7896,7 +7901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>41</v>
       </c>
@@ -8015,7 +8020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -8134,7 +8139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>39</v>
       </c>
@@ -8253,7 +8258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
@@ -8372,7 +8377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -8491,7 +8496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -8552,7 +8557,9 @@
       <c r="T65" s="2">
         <v>0</v>
       </c>
-      <c r="U65" s="2"/>
+      <c r="U65" s="2">
+        <v>65</v>
+      </c>
       <c r="V65" s="4">
         <v>80</v>
       </c>
@@ -8608,7 +8615,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -8727,7 +8734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
@@ -8846,7 +8853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>40</v>
       </c>
@@ -8965,7 +8972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -9084,7 +9091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
@@ -9203,7 +9210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
@@ -9322,7 +9329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -9441,7 +9448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -9560,7 +9567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -9679,7 +9686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>35</v>
       </c>
@@ -9798,7 +9805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>18</v>
       </c>
@@ -9917,7 +9924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -10036,7 +10043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -10097,7 +10104,9 @@
       <c r="T78" s="2">
         <v>11</v>
       </c>
-      <c r="U78" s="2"/>
+      <c r="U78" s="2">
+        <v>65</v>
+      </c>
       <c r="V78" s="4">
         <v>60</v>
       </c>
@@ -10153,7 +10162,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
@@ -10272,7 +10281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>61</v>
       </c>
@@ -10391,7 +10400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -10510,7 +10519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>47</v>
       </c>
@@ -10629,7 +10638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>21</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
@@ -10809,7 +10818,9 @@
       <c r="T84" s="2">
         <v>12</v>
       </c>
-      <c r="U84" s="2"/>
+      <c r="U84" s="2">
+        <v>65</v>
+      </c>
       <c r="V84" s="4">
         <v>66.67</v>
       </c>
@@ -10841,7 +10852,7 @@
         <v>36</v>
       </c>
       <c r="AF84" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG84" s="6">
         <v>0</v>
@@ -10853,7 +10864,7 @@
         <v>40</v>
       </c>
       <c r="AJ84" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK84" s="2">
         <v>80</v>
@@ -10865,7 +10876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>10</v>
       </c>

--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R28" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6052,7 +6052,7 @@
         <v>54</v>
       </c>
       <c r="R44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S44" s="2">
         <v>95</v>

--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" topLeftCell="P61" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10929,7 +10929,7 @@
         <v>52</v>
       </c>
       <c r="R85" s="10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S85" s="10">
         <v>80</v>

--- a/assets/2018/Grades_20181203.xlsx
+++ b/assets/2018/Grades_20181203.xlsx
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P61" workbookViewId="0">
-      <selection activeCell="R86" sqref="R86"/>
+    <sheetView tabSelected="1" topLeftCell="P73" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8359,7 +8359,7 @@
         <v>6</v>
       </c>
       <c r="AH63" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI63" s="2">
         <v>40</v>
@@ -10813,7 +10813,7 @@
         <v>95</v>
       </c>
       <c r="S84" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="T84" s="2">
         <v>12</v>
